--- a/data/processed/rhyolitic_glasses/calczaf_files/detlim/calczaf_outputs.xlsx
+++ b/data/processed/rhyolitic_glasses/calczaf_files/detlim/calczaf_outputs.xlsx
@@ -455,40 +455,40 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="C2">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="D2">
+        <v>0.02</v>
+      </c>
+      <c r="E2">
         <v>0.018</v>
       </c>
-      <c r="E2">
-        <v>0.016</v>
-      </c>
       <c r="F2">
         <v>0.021</v>
       </c>
       <c r="G2">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="H2">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I2">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="J2">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="K2">
         <v>0.005</v>
       </c>
       <c r="L2">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M2">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -537,40 +537,40 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="C5">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="D5">
+        <v>0.02</v>
+      </c>
+      <c r="E5">
         <v>0.018</v>
       </c>
-      <c r="E5">
-        <v>0.016</v>
-      </c>
       <c r="F5">
         <v>0.021</v>
       </c>
       <c r="G5">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="H5">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="I5">
-        <v>0.022</v>
+        <v>0.021</v>
       </c>
       <c r="J5">
-        <v>0.019</v>
+        <v>0.021</v>
       </c>
       <c r="K5">
         <v>0.005</v>
       </c>
       <c r="L5">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="M5">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -619,40 +619,40 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="C8">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="D8">
+        <v>0.023</v>
+      </c>
+      <c r="E8">
         <v>0.02</v>
-      </c>
-      <c r="E8">
-        <v>0.018</v>
       </c>
       <c r="F8">
         <v>0.023</v>
       </c>
       <c r="G8">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="H8">
         <v>0.02</v>
       </c>
       <c r="I8">
-        <v>0.025</v>
+        <v>0.023</v>
       </c>
       <c r="J8">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="K8">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="L8">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="M8">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
     </row>
   </sheetData>
@@ -717,40 +717,40 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="C2">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="D2">
+        <v>0.024</v>
+      </c>
+      <c r="E2">
         <v>0.022</v>
-      </c>
-      <c r="E2">
-        <v>0.019</v>
       </c>
       <c r="F2">
         <v>0.025</v>
       </c>
       <c r="G2">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="H2">
         <v>0.021</v>
       </c>
       <c r="I2">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="J2">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="K2">
         <v>0.006</v>
       </c>
       <c r="L2">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="M2">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -799,40 +799,40 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="C5">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="D5">
+        <v>0.024</v>
+      </c>
+      <c r="E5">
         <v>0.022</v>
-      </c>
-      <c r="E5">
-        <v>0.019</v>
       </c>
       <c r="F5">
         <v>0.025</v>
       </c>
       <c r="G5">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="H5">
         <v>0.021</v>
       </c>
       <c r="I5">
-        <v>0.027</v>
+        <v>0.025</v>
       </c>
       <c r="J5">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="K5">
         <v>0.006</v>
       </c>
       <c r="L5">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="M5">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -881,40 +881,40 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
       <c r="C8">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="D8">
+        <v>0.028</v>
+      </c>
+      <c r="E8">
         <v>0.024</v>
-      </c>
-      <c r="E8">
-        <v>0.021</v>
       </c>
       <c r="F8">
         <v>0.028</v>
       </c>
       <c r="G8">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="H8">
         <v>0.024</v>
       </c>
       <c r="I8">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="J8">
-        <v>0.026</v>
+        <v>0.028</v>
       </c>
       <c r="K8">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="L8">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="M8">
-        <v>0.039</v>
+        <v>0.045</v>
       </c>
     </row>
   </sheetData>
@@ -973,34 +973,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="C2">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="D2">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="E2">
+        <v>0.018</v>
+      </c>
+      <c r="F2">
         <v>0.016</v>
       </c>
-      <c r="F2">
-        <v>0.015</v>
-      </c>
       <c r="G2">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="H2">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="I2">
         <v>0.007</v>
       </c>
       <c r="J2">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="K2">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1043,34 +1043,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="C5">
-        <v>0.028</v>
+        <v>0.032</v>
       </c>
       <c r="D5">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="E5">
+        <v>0.018</v>
+      </c>
+      <c r="F5">
         <v>0.016</v>
       </c>
-      <c r="F5">
-        <v>0.015</v>
-      </c>
       <c r="G5">
-        <v>0.031</v>
+        <v>0.029</v>
       </c>
       <c r="H5">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="I5">
         <v>0.007</v>
       </c>
       <c r="J5">
-        <v>0.015</v>
+        <v>0.016</v>
       </c>
       <c r="K5">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1113,34 +1113,34 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="C8">
-        <v>0.031</v>
+        <v>0.036</v>
       </c>
       <c r="D8">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="E8">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="F8">
         <v>0.017</v>
       </c>
       <c r="G8">
-        <v>0.034</v>
+        <v>0.032</v>
       </c>
       <c r="H8">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="I8">
         <v>0.008</v>
       </c>
       <c r="J8">
-        <v>0.016</v>
+        <v>0.017</v>
       </c>
       <c r="K8">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
     </row>
   </sheetData>
@@ -1199,34 +1199,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="C2">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="D2">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="F2">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="G2">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="H2">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="I2">
         <v>0.008999999999999999</v>
       </c>
       <c r="J2">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="K2">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1269,34 +1269,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.018</v>
+        <v>0.021</v>
       </c>
       <c r="C5">
-        <v>0.034</v>
+        <v>0.039</v>
       </c>
       <c r="D5">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="F5">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="G5">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="H5">
-        <v>0.024</v>
+        <v>0.026</v>
       </c>
       <c r="I5">
         <v>0.008999999999999999</v>
       </c>
       <c r="J5">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="K5">
-        <v>0.037</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1339,34 +1339,34 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="C8">
-        <v>0.037</v>
+        <v>0.043</v>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="E8">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="F8">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="G8">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="H8">
-        <v>0.027</v>
+        <v>0.028</v>
       </c>
       <c r="I8">
         <v>0.01</v>
       </c>
       <c r="J8">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="K8">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
     </row>
   </sheetData>
@@ -1425,34 +1425,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="C2">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="D2">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="E2">
+        <v>0.018</v>
+      </c>
+      <c r="F2">
         <v>0.017</v>
       </c>
-      <c r="F2">
-        <v>0.018</v>
-      </c>
       <c r="G2">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="H2">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="I2">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J2">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="K2">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1495,34 +1495,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="C5">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="D5">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="E5">
+        <v>0.018</v>
+      </c>
+      <c r="F5">
         <v>0.017</v>
       </c>
-      <c r="F5">
-        <v>0.018</v>
-      </c>
       <c r="G5">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="H5">
-        <v>0.021</v>
+        <v>0.023</v>
       </c>
       <c r="I5">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="J5">
-        <v>0.013</v>
+        <v>0.017</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1565,34 +1565,34 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="C8">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
       <c r="D8">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="F8">
         <v>0.021</v>
       </c>
       <c r="G8">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="H8">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="I8">
         <v>0.008</v>
       </c>
       <c r="J8">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="K8">
-        <v>0.037</v>
+        <v>0.038</v>
       </c>
     </row>
   </sheetData>
@@ -1651,34 +1651,34 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="C2">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="D2">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="E2">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="F2">
         <v>0.021</v>
       </c>
       <c r="G2">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="H2">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="I2">
         <v>0.008</v>
       </c>
       <c r="J2">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="K2">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1721,34 +1721,34 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="C5">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
       <c r="D5">
-        <v>0.033</v>
+        <v>0.035</v>
       </c>
       <c r="E5">
-        <v>0.021</v>
+        <v>0.022</v>
       </c>
       <c r="F5">
         <v>0.021</v>
       </c>
       <c r="G5">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="H5">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="I5">
         <v>0.008</v>
       </c>
       <c r="J5">
-        <v>0.016</v>
+        <v>0.021</v>
       </c>
       <c r="K5">
-        <v>0.036</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1791,34 +1791,34 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="C8">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="D8">
-        <v>0.039</v>
+        <v>0.042</v>
       </c>
       <c r="E8">
+        <v>0.026</v>
+      </c>
+      <c r="F8">
         <v>0.025</v>
       </c>
-      <c r="F8">
-        <v>0.026</v>
-      </c>
       <c r="G8">
-        <v>0.028</v>
+        <v>0.034</v>
       </c>
       <c r="H8">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="I8">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J8">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="K8">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
     </row>
   </sheetData>
